--- a/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C14BEF1-642C-43A3-9F59-9FC143250825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86DE3B3-5D2C-4CAD-B4F7-850749D80B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{375C0B5A-CC14-4E74-A8B1-52C5CBE1AB4B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF34DF36-6965-460D-9F5E-228025AE2046}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,06%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>93,22%</t>
   </si>
   <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>94,91%</t>
   </si>
   <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,754 +140,736 @@
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
   </si>
   <si>
     <t>4,62%</t>
   </si>
   <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
     <t>3,65%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>96,34%</t>
   </si>
   <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
   </si>
   <si>
     <t>1,34%</t>
   </si>
   <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>3,72%</t>
   </si>
   <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
     <t>3,3%</t>
   </si>
   <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
   </si>
   <si>
     <t>96,7%</t>
   </si>
   <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
+    <t>95,61%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>2,67%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>3,32%</t>
+    <t>3,31%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>97,33%</t>
+    <t>98,31%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>96,68%</t>
+    <t>96,69%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB88A76-02B7-4B4E-9FA1-0A78C3E7A195}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A534F790-C9D2-4CA0-8DD8-58D9B55FFE3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,7 +1918,7 @@
         <v>3144</v>
       </c>
       <c r="D14" s="7">
-        <v>3202248</v>
+        <v>3202249</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1966,7 +1948,7 @@
         <v>6263</v>
       </c>
       <c r="N14" s="7">
-        <v>6401759</v>
+        <v>6401760</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1987,7 +1969,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2017,7 +1999,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E59469-A3CF-4BCB-94F2-026E7ACCF7E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D93841D-2C65-4055-B221-FA6636A3D394}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2350,7 +2332,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -2359,13 +2341,13 @@
         <v>98779</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2380,13 +2362,13 @@
         <v>1938511</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1558</v>
@@ -2395,13 +2377,13 @@
         <v>1672501</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3389</v>
@@ -2410,13 +2392,13 @@
         <v>3611013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2466,13 @@
         <v>7786</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2499,13 +2481,13 @@
         <v>26584</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2514,13 +2496,13 @@
         <v>34371</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2535,13 +2517,13 @@
         <v>472546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2550,13 +2532,13 @@
         <v>431070</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>818</v>
@@ -2565,13 +2547,13 @@
         <v>903615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2621,13 @@
         <v>45556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -2654,13 +2636,13 @@
         <v>213030</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -2669,13 +2651,13 @@
         <v>258585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2672,13 @@
         <v>3366635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>3086</v>
@@ -2705,13 +2687,13 @@
         <v>3326985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>6241</v>
@@ -2720,13 +2702,13 @@
         <v>6693621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D610461E-ADA0-41D6-BBA0-879EEE8F5620}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8707AD2-B014-4279-8798-6A2774EC3A99}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2818,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2925,13 +2907,13 @@
         <v>11723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -2940,13 +2922,13 @@
         <v>53514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -2955,13 +2937,13 @@
         <v>65237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2976,13 +2958,13 @@
         <v>742624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>845</v>
@@ -2991,13 +2973,13 @@
         <v>941146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>1594</v>
@@ -3006,13 +2988,13 @@
         <v>1683770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3080,13 +3062,13 @@
         <v>24241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -3095,13 +3077,13 @@
         <v>66922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -3113,10 +3095,10 @@
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3113,13 @@
         <v>2052144</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1843</v>
@@ -3146,13 +3128,13 @@
         <v>1921378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>3772</v>
@@ -3164,10 +3146,10 @@
         <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3217,13 @@
         <v>6360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3250,13 +3232,13 @@
         <v>25695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>14</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -3265,13 +3247,13 @@
         <v>32056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,13 +3268,13 @@
         <v>540526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3301,13 +3283,13 @@
         <v>523445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>997</v>
@@ -3316,13 +3298,13 @@
         <v>1063970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3390,13 +3372,13 @@
         <v>42324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -3405,13 +3387,13 @@
         <v>146131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>207</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -3420,13 +3402,13 @@
         <v>188456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3441,13 +3423,13 @@
         <v>3335294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -3456,13 +3438,13 @@
         <v>3385969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>216</v>
+        <v>66</v>
       </c>
       <c r="M14" s="7">
         <v>6363</v>
@@ -3471,13 +3453,13 @@
         <v>6721262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3552,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB434B9B-E69C-43FC-9DA9-344082FDDF51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF26BA20-EC8A-4D01-B8E3-01C85CD74C78}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3569,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3676,13 +3658,13 @@
         <v>23018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -3691,13 +3673,13 @@
         <v>69135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3706,13 +3688,13 @@
         <v>92153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3727,13 +3709,13 @@
         <v>517024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1302</v>
@@ -3742,13 +3724,13 @@
         <v>762433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>1959</v>
@@ -3757,13 +3739,13 @@
         <v>1279458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,10 +3813,10 @@
         <v>35947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>69</v>
@@ -3846,10 +3828,10 @@
         <v>91069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>150</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>243</v>
@@ -3861,13 +3843,13 @@
         <v>127015</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,28 +3864,28 @@
         <v>2126075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="7">
         <v>2768</v>
       </c>
       <c r="I8" s="7">
-        <v>2157727</v>
+        <v>2157726</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="M8" s="7">
         <v>4715</v>
@@ -3912,13 +3894,13 @@
         <v>4283802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,7 +3927,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2248795</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3986,13 +3968,13 @@
         <v>12419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -4001,13 +3983,13 @@
         <v>33405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4016,13 +3998,13 @@
         <v>45823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4019,13 @@
         <v>660620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H11" s="7">
         <v>952</v>
@@ -4052,13 +4034,13 @@
         <v>680481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4067,13 +4049,13 @@
         <v>1341103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>261</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,13 +4123,13 @@
         <v>71383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4156,13 +4138,13 @@
         <v>193608</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4171,13 +4153,13 @@
         <v>264991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4174,13 @@
         <v>3303721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>5022</v>
@@ -4207,13 +4189,13 @@
         <v>3600642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8296</v>
@@ -4222,13 +4204,13 @@
         <v>6904363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F86DE3B3-5D2C-4CAD-B4F7-850749D80B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{739E202C-E0D6-449C-830F-E589D5B749B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FF34DF36-6965-460D-9F5E-228025AE2046}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46B32244-E900-4BD1-9D11-9969418891AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,796 +77,826 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>95,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
   </si>
   <si>
     <t>96,69%</t>
@@ -1281,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A534F790-C9D2-4CA0-8DD8-58D9B55FFE3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3317EE3-5784-4397-995B-BFE45F052067}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1918,7 +1948,7 @@
         <v>3144</v>
       </c>
       <c r="D14" s="7">
-        <v>3202249</v>
+        <v>3202248</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1969,7 +1999,7 @@
         <v>3213</v>
       </c>
       <c r="D15" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2032,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D93841D-2C65-4055-B221-FA6636A3D394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E520C1-0E96-4385-98D8-DA0F7D113B78}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2472,7 +2502,7 @@
         <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2481,13 +2511,13 @@
         <v>26584</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2496,13 +2526,13 @@
         <v>34371</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2547,13 @@
         <v>472546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2532,13 +2562,13 @@
         <v>431070</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>818</v>
@@ -2547,13 +2577,13 @@
         <v>903615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2651,13 @@
         <v>45556</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>195</v>
@@ -2636,13 +2666,13 @@
         <v>213030</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>235</v>
@@ -2651,13 +2681,13 @@
         <v>258585</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2702,13 @@
         <v>3366635</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>3086</v>
@@ -2687,13 +2717,13 @@
         <v>3326985</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>6241</v>
@@ -2702,13 +2732,13 @@
         <v>6693621</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,7 +2813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8707AD2-B014-4279-8798-6A2774EC3A99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A1CCBA-525E-4F19-8D73-3EDB19F3949F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,7 +2830,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2907,13 +2937,13 @@
         <v>11723</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -2922,13 +2952,13 @@
         <v>53514</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>60</v>
@@ -2937,13 +2967,13 @@
         <v>65237</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,13 +2988,13 @@
         <v>742624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>845</v>
@@ -2973,13 +3003,13 @@
         <v>941146</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>1594</v>
@@ -2988,13 +3018,13 @@
         <v>1683770</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3092,13 @@
         <v>24241</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -3077,13 +3107,13 @@
         <v>66922</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -3095,10 +3125,10 @@
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3143,13 @@
         <v>2052144</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>1843</v>
@@ -3128,7 +3158,7 @@
         <v>1921378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>188</v>
@@ -3253,7 +3283,7 @@
         <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3298,13 @@
         <v>540526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3283,13 +3313,13 @@
         <v>523445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M11" s="7">
         <v>997</v>
@@ -3298,13 +3328,13 @@
         <v>1063970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3402,13 @@
         <v>42324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -3387,13 +3417,13 @@
         <v>146131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>214</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -3402,13 +3432,13 @@
         <v>188456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3453,13 @@
         <v>3335294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -3438,13 +3468,13 @@
         <v>3385969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>66</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>6363</v>
@@ -3453,13 +3483,13 @@
         <v>6721262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,7 +3564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF26BA20-EC8A-4D01-B8E3-01C85CD74C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C8BDAE-F901-452E-9074-98A7973900BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3581,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3658,13 +3688,13 @@
         <v>23018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -3673,13 +3703,13 @@
         <v>69135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3688,13 +3718,13 @@
         <v>92153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3739,13 @@
         <v>517024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H5" s="7">
         <v>1302</v>
@@ -3724,13 +3754,13 @@
         <v>762433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>1959</v>
@@ -3739,13 +3769,13 @@
         <v>1279458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,10 +3843,10 @@
         <v>35947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>69</v>
@@ -3828,13 +3858,13 @@
         <v>91069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3843,13 +3873,13 @@
         <v>127015</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3894,13 @@
         <v>2126075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>2768</v>
@@ -3879,13 +3909,13 @@
         <v>2157726</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>4715</v>
@@ -3894,13 +3924,13 @@
         <v>4283802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3998,13 @@
         <v>12419</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
@@ -3986,10 +4016,10 @@
         <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -3998,13 +4028,13 @@
         <v>45823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4049,13 @@
         <v>660620</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>952</v>
@@ -4034,13 +4064,13 @@
         <v>680481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4049,13 +4079,13 @@
         <v>1341103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4153,13 @@
         <v>71383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>164</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4138,13 +4168,13 @@
         <v>193608</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4153,13 +4183,13 @@
         <v>264991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4204,13 @@
         <v>3303721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>5022</v>
@@ -4189,13 +4219,13 @@
         <v>3600642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>8296</v>
@@ -4204,13 +4234,13 @@
         <v>6904363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>29</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{739E202C-E0D6-449C-830F-E589D5B749B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{098D0835-9564-44B6-9DEF-440E73496309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46B32244-E900-4BD1-9D11-9969418891AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDC29F8C-B697-4CCF-B943-5C66C43DD2D1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="283">
   <si>
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,835 +71,823 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
   </si>
   <si>
     <t>5,09%</t>
   </si>
   <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2012 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
   </si>
   <si>
     <t>1,66%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
   </si>
   <si>
     <t>98,34%</t>
   </si>
   <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>97,12%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
   </si>
   <si>
     <t>2,11%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>2,67%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
   </si>
   <si>
     <t>3,7%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>97,89%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
+    <t>97,33%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>96,3%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>96,68%</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3317EE3-5784-4397-995B-BFE45F052067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FD3AC6-352A-46F5-912A-6F1F14B7D6C4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,7 +1966,7 @@
         <v>6263</v>
       </c>
       <c r="N14" s="7">
-        <v>6401760</v>
+        <v>6401759</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2029,7 +2017,7 @@
         <v>6510</v>
       </c>
       <c r="N15" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2062,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E520C1-0E96-4385-98D8-DA0F7D113B78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE92BB2-278B-4C0C-9F57-C1A7CBBAB6A0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2362,7 +2350,7 @@
         <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="M7" s="7">
         <v>91</v>
@@ -2371,13 +2359,13 @@
         <v>98779</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2380,13 @@
         <v>1938511</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1558</v>
@@ -2407,13 +2395,13 @@
         <v>1672501</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>3389</v>
@@ -2422,13 +2410,13 @@
         <v>3611013</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,13 +2484,13 @@
         <v>7786</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -2511,13 +2499,13 @@
         <v>26584</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -2526,13 +2514,13 @@
         <v>34371</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,10 +2535,10 @@
         <v>472546</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>133</v>
@@ -2577,13 +2565,13 @@
         <v>903615</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40A1CCBA-525E-4F19-8D73-3EDB19F3949F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E269BB-C190-43B4-8E43-7430DEA92F2D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3098,7 +3086,7 @@
         <v>177</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>65</v>
@@ -3107,13 +3095,13 @@
         <v>66922</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>88</v>
@@ -3125,10 +3113,10 @@
         <v>69</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3143,13 +3131,13 @@
         <v>2052144</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>116</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>1843</v>
@@ -3158,13 +3146,13 @@
         <v>1921378</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>86</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M8" s="7">
         <v>3772</v>
@@ -3176,10 +3164,10 @@
         <v>78</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,13 +3235,13 @@
         <v>6360</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -3262,13 +3250,13 @@
         <v>25695</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -3277,13 +3265,13 @@
         <v>32056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,13 +3286,13 @@
         <v>540526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="H11" s="7">
         <v>502</v>
@@ -3313,13 +3301,13 @@
         <v>523445</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>997</v>
@@ -3328,13 +3316,13 @@
         <v>1063970</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,13 +3390,13 @@
         <v>42324</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -3417,13 +3405,13 @@
         <v>146131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M13" s="7">
         <v>178</v>
@@ -3432,13 +3420,13 @@
         <v>188456</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,13 +3441,13 @@
         <v>3335294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H14" s="7">
         <v>3190</v>
@@ -3468,13 +3456,13 @@
         <v>3385969</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M14" s="7">
         <v>6363</v>
@@ -3483,13 +3471,13 @@
         <v>6721262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C8BDAE-F901-452E-9074-98A7973900BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB88B13-234D-435C-A1F3-2A31F27BFB02}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3581,7 +3569,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3688,13 +3676,13 @@
         <v>23018</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>18</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -3703,13 +3691,13 @@
         <v>69135</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M4" s="7">
         <v>153</v>
@@ -3718,13 +3706,13 @@
         <v>92153</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3727,13 @@
         <v>517024</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1302</v>
@@ -3754,13 +3742,13 @@
         <v>762433</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1959</v>
@@ -3769,13 +3757,13 @@
         <v>1279458</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,10 +3831,10 @@
         <v>35947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>69</v>
@@ -3858,13 +3846,13 @@
         <v>91069</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3873,13 +3861,13 @@
         <v>127015</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,28 +3882,28 @@
         <v>2126075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2768</v>
       </c>
       <c r="I8" s="7">
-        <v>2157726</v>
+        <v>2157727</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>4715</v>
@@ -3924,7 +3912,7 @@
         <v>4283802</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>253</v>
@@ -3957,7 +3945,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248795</v>
+        <v>2248796</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4013,13 +4001,13 @@
         <v>33405</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -4028,7 +4016,7 @@
         <v>45823</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>260</v>
@@ -4064,13 +4052,13 @@
         <v>680481</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
@@ -4079,7 +4067,7 @@
         <v>1341103</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>156</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>267</v>
@@ -4156,10 +4144,10 @@
         <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>325</v>
@@ -4168,13 +4156,13 @@
         <v>193608</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>413</v>
@@ -4183,13 +4171,13 @@
         <v>264991</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>276</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,13 +4192,13 @@
         <v>3303721</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>5022</v>
@@ -4219,13 +4207,13 @@
         <v>3600642</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>8296</v>
@@ -4234,13 +4222,13 @@
         <v>6904363</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098D0835-9564-44B6-9DEF-440E73496309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E37C70-4828-4648-AEC7-F27217E99B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DDC29F8C-B697-4CCF-B943-5C66C43DD2D1}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76512253-268D-49CF-B27C-856977469B54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -704,190 +704,190 @@
     <t>Población que ha consumido reconstituyentes en las dos últimas semanas en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
   </si>
   <si>
     <t>7,05%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>92,95%</t>
   </si>
   <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>4,91%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
   </si>
   <si>
     <t>95,09%</t>
   </si>
   <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1299,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FD3AC6-352A-46F5-912A-6F1F14B7D6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3DAC2-F007-4BA0-B3E0-05CCA03A04E6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1501,7 +1501,7 @@
         <v>2210</v>
       </c>
       <c r="N5" s="7">
-        <v>2227437</v>
+        <v>2227436</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1552,7 +1552,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1656,7 +1656,7 @@
         <v>3107</v>
       </c>
       <c r="N8" s="7">
-        <v>3182282</v>
+        <v>3182281</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1707,7 +1707,7 @@
         <v>3202</v>
       </c>
       <c r="N9" s="7">
-        <v>3280068</v>
+        <v>3280067</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1951,7 +1951,7 @@
         <v>3119</v>
       </c>
       <c r="I14" s="7">
-        <v>3199512</v>
+        <v>3199511</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2002,7 +2002,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2050,7 +2050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE92BB2-278B-4C0C-9F57-C1A7CBBAB6A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE511E8-4CCE-4829-AD31-72B2E7D3B875}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2801,7 +2801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E269BB-C190-43B4-8E43-7430DEA92F2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACB9BA6-B1BE-4529-BDD8-ED168C58ABC7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3313,7 +3313,7 @@
         <v>997</v>
       </c>
       <c r="N11" s="7">
-        <v>1063970</v>
+        <v>1063971</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>201</v>
@@ -3364,7 +3364,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3552,7 +3552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB88B13-234D-435C-A1F3-2A31F27BFB02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F710EFC8-BB76-4B26-8415-E468562F8D39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3673,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="7">
-        <v>23018</v>
+        <v>22337</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>221</v>
@@ -3688,7 +3688,7 @@
         <v>121</v>
       </c>
       <c r="I4" s="7">
-        <v>69135</v>
+        <v>62511</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>224</v>
@@ -3703,16 +3703,16 @@
         <v>153</v>
       </c>
       <c r="N4" s="7">
-        <v>92153</v>
+        <v>84848</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>227</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,46 +3724,46 @@
         <v>657</v>
       </c>
       <c r="D5" s="7">
-        <v>517024</v>
+        <v>491115</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="H5" s="7">
         <v>1302</v>
       </c>
       <c r="I5" s="7">
-        <v>762433</v>
+        <v>689221</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>1959</v>
       </c>
       <c r="N5" s="7">
-        <v>1279458</v>
+        <v>1180335</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3775,7 @@
         <v>689</v>
       </c>
       <c r="D6" s="7">
-        <v>540042</v>
+        <v>513452</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3790,7 +3790,7 @@
         <v>1423</v>
       </c>
       <c r="I6" s="7">
-        <v>831568</v>
+        <v>751732</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3805,7 +3805,7 @@
         <v>2112</v>
       </c>
       <c r="N6" s="7">
-        <v>1371611</v>
+        <v>1265183</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3828,46 +3828,46 @@
         <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>35947</v>
+        <v>34305</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
       </c>
       <c r="I7" s="7">
-        <v>91069</v>
+        <v>85205</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
       </c>
       <c r="N7" s="7">
-        <v>127015</v>
+        <v>119510</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3879,13 @@
         <v>1947</v>
       </c>
       <c r="D8" s="7">
-        <v>2126075</v>
+        <v>2256022</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>248</v>
@@ -3894,7 +3894,7 @@
         <v>2768</v>
       </c>
       <c r="I8" s="7">
-        <v>2157727</v>
+        <v>2151940</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>249</v>
@@ -3909,7 +3909,7 @@
         <v>4715</v>
       </c>
       <c r="N8" s="7">
-        <v>4283802</v>
+        <v>4407962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>252</v>
@@ -3930,7 +3930,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3945,7 +3945,7 @@
         <v>2920</v>
       </c>
       <c r="I9" s="7">
-        <v>2248796</v>
+        <v>2237145</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3960,7 +3960,7 @@
         <v>4912</v>
       </c>
       <c r="N9" s="7">
-        <v>4410817</v>
+        <v>4527472</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3983,7 +3983,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>12419</v>
+        <v>12072</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>255</v>
@@ -3992,31 +3992,31 @@
         <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
         <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>33405</v>
+        <v>31595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
       </c>
       <c r="N10" s="7">
-        <v>45823</v>
+        <v>43667</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>260</v>
@@ -4034,40 +4034,40 @@
         <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>660620</v>
+        <v>634551</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H11" s="7">
         <v>952</v>
       </c>
       <c r="I11" s="7">
-        <v>680481</v>
+        <v>628868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M11" s="7">
         <v>1622</v>
       </c>
       <c r="N11" s="7">
-        <v>1341103</v>
+        <v>1263419</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>267</v>
@@ -4085,7 +4085,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4100,7 +4100,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4115,7 +4115,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4138,13 +4138,13 @@
         <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>71383</v>
+        <v>68715</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>270</v>
@@ -4153,7 +4153,7 @@
         <v>325</v>
       </c>
       <c r="I13" s="7">
-        <v>193608</v>
+        <v>179311</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>271</v>
@@ -4168,16 +4168,16 @@
         <v>413</v>
       </c>
       <c r="N13" s="7">
-        <v>264991</v>
+        <v>248026</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,22 +4189,22 @@
         <v>3274</v>
       </c>
       <c r="D14" s="7">
-        <v>3303721</v>
+        <v>3381687</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>5022</v>
       </c>
       <c r="I14" s="7">
-        <v>3600642</v>
+        <v>3470028</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>278</v>
@@ -4219,13 +4219,13 @@
         <v>8296</v>
       </c>
       <c r="N14" s="7">
-        <v>6904363</v>
+        <v>6851716</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>282</v>
@@ -4240,7 +4240,7 @@
         <v>3362</v>
       </c>
       <c r="D15" s="7">
-        <v>3375104</v>
+        <v>3450402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4255,7 +4255,7 @@
         <v>5347</v>
       </c>
       <c r="I15" s="7">
-        <v>3794250</v>
+        <v>3649339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4270,7 +4270,7 @@
         <v>8709</v>
       </c>
       <c r="N15" s="7">
-        <v>7169354</v>
+        <v>7099742</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
